--- a/Document/项目的需求分析/迭代计划.xlsx
+++ b/Document/项目的需求分析/迭代计划.xlsx
@@ -16,26 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、需求分析</t>
-    </r>
+    <t>2016/11/15——2016/11/25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>2</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -45,13 +33,33 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、用户建模</t>
+      <t>、我的策略</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待入场，已入场，已出场状态切换</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>3</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -61,13 +69,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、软件设计</t>
+      <t>、策略类别，策略周期，所属老师，所属团队查询过滤</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>4</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -77,13 +85,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、前端框架搭建</t>
+      <t>、记录功能，融入策略</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2016/10/9——2016/10/9   </t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -93,7 +101,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>第一迭代</t>
+      <t>、加入团队设计，如果想推送，需要加入团队，或新建团队</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、新建策略支持图片导入功能</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,18 +148,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,7 +170,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -449,58 +467,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="56.5" customWidth="1"/>
     <col min="2" max="3" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:1" ht="18" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:1" ht="18" customHeight="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
-      <c r="A5" t="s">
+    <row r="4" spans="1:1" ht="18" customHeight="1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1"/>
-    <row r="7" spans="1:5" ht="18" customHeight="1"/>
-    <row r="8" spans="1:5" ht="18" customHeight="1"/>
-    <row r="9" spans="1:5" ht="18" customHeight="1"/>
-    <row r="10" spans="1:5" ht="18" customHeight="1"/>
-    <row r="11" spans="1:5" ht="18" customHeight="1"/>
-    <row r="12" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:1" ht="18" customHeight="1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18" customHeight="1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:E4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Document/项目的需求分析/迭代计划.xlsx
+++ b/Document/项目的需求分析/迭代计划.xlsx
@@ -16,15 +16,8 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>2016/11/15——2016/11/25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -33,7 +26,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、我的策略</t>
+      <t>我的策略</t>
     </r>
     <r>
       <rPr>
@@ -58,8 +51,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>记录功能，融入策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入团队设计，如果想推送，需要加入团队，或新建团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建策略支持图片导入功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>2</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>侧边栏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>policy</t>
     </r>
     <r>
       <rPr>
@@ -69,56 +91,28 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、策略类别，策略周期，所属老师，所属团队查询过滤</t>
+      <t>个数显示</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、记录功能，融入策略</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、加入团队设计，如果想推送，需要加入团队，或新建团队</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、新建策略支持图片导入功能</t>
-    </r>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/11/15——2016/11/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略单号，策略类别，策略周期，策略方向查询过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当策略为空时显示当前无投资策略图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +135,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -168,10 +178,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -475,41 +500,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="56.5" customWidth="1"/>
-    <col min="2" max="3" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="56.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="18" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18" customHeight="1">
-      <c r="A2" t="s">
+    <row r="5" spans="1:2" ht="18" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18" customHeight="1">
-      <c r="A3" t="s">
+    <row r="7" spans="1:2" ht="18" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18" customHeight="1">
-      <c r="A4" t="s">
+    <row r="8" spans="1:2" ht="18" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18" customHeight="1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="18" customHeight="1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="18" customHeight="1"/>
+    <row r="9" spans="1:2" ht="18" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/项目的需求分析/迭代计划.xlsx
+++ b/Document/项目的需求分析/迭代计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <r>
       <rPr>
@@ -495,7 +495,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -533,6 +533,9 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="18" customHeight="1">
       <c r="A5" s="6" t="s">

--- a/Document/项目的需求分析/迭代计划.xlsx
+++ b/Document/项目的需求分析/迭代计划.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="当前需求" sheetId="1" r:id="rId1"/>
+    <sheet name="后期扩展需求" sheetId="2" r:id="rId2"/>
+    <sheet name="学习计划" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <r>
       <rPr>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建策略支持图片导入功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -112,7 +108,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当策略为空时显示当前无投资策略图标</t>
+    <t>2016.11.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>docker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司上班可学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>angular1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司上班可学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当策略为空时显示当前无投资策略图标(图标可后期再做)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建策略，策略理由支持图片导入功能(策略理由的扩展开发，后期完成)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期扩展需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.11.19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +285,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -197,6 +333,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,72 +637,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="56.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="63.375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1">
+    <row r="1" spans="1:4" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1">
+    <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" customHeight="1"/>
+    <row r="8" spans="1:4" ht="18" customHeight="1"/>
+    <row r="9" spans="1:4" ht="18" customHeight="1"/>
+    <row r="10" spans="1:4" ht="18" customHeight="1"/>
+    <row r="11" spans="1:4" ht="18" customHeight="1"/>
+    <row r="12" spans="1:4" ht="18" customHeight="1"/>
+    <row r="13" spans="1:4" ht="18" customHeight="1"/>
+    <row r="14" spans="1:4" ht="18" customHeight="1"/>
+    <row r="15" spans="1:4" ht="18" customHeight="1"/>
+    <row r="16" spans="1:4" ht="18" customHeight="1"/>
+    <row r="17" ht="18" customHeight="1"/>
+    <row r="18" ht="18" customHeight="1"/>
+    <row r="19" ht="18" customHeight="1"/>
+    <row r="20" ht="18" customHeight="1"/>
+    <row r="21" ht="18" customHeight="1"/>
+    <row r="22" ht="18" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -567,12 +735,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="61.5" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="35.1" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="8"/>
+    </row>
+    <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="8"/>
+    </row>
+    <row r="6" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="8"/>
+    </row>
+    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="8"/>
+    </row>
+    <row r="23" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="8"/>
+    </row>
+    <row r="25" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="8"/>
+    </row>
+    <row r="26" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="29" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="30" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="8"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -580,12 +850,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/项目的需求分析/迭代计划.xlsx
+++ b/Document/项目的需求分析/迭代计划.xlsx
@@ -640,7 +640,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Document/项目的需求分析/迭代计划.xlsx
+++ b/Document/项目的需求分析/迭代计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加入团队设计，如果想推送，需要加入团队，或新建团队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -96,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016/11/15——2016/11/25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +233,63 @@
   </si>
   <si>
     <t>2016.11.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击退出后，我的策略个数为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，当前策略为空</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击退出后，策略界面显示未登录页面。提示用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成(后续需要扩展)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队  软删除，不要团队，个人可以设置自己的策略为推送，别人可订阅策略创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/11/15——2016/11/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/11/15——2016/11/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队，软删除，界面不显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,43 +689,44 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="63.375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
@@ -684,35 +734,64 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1"/>
-    <row r="9" spans="1:4" ht="18" customHeight="1"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="10" spans="1:4" ht="18" customHeight="1"/>
     <row r="11" spans="1:4" ht="18" customHeight="1"/>
     <row r="12" spans="1:4" ht="18" customHeight="1"/>
@@ -735,7 +814,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -743,29 +822,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="61.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="83" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="35.1" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="8" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="35.1" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="8"/>
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="8"/>
@@ -841,6 +924,9 @@
     </row>
     <row r="30" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -863,12 +949,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Document/项目的需求分析/迭代计划.xlsx
+++ b/Document/项目的需求分析/迭代计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -290,6 +290,52 @@
   </si>
   <si>
     <t>团队，软删除，界面不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一阶段：策略页面的功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建lniux开发环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端代码docker部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>后端代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>docker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部署</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建lniuxCI环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外网可以连接看效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -700,60 +746,54 @@
     <col min="4" max="4" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
+      <c r="A4" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
+      <c r="A5" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -764,18 +804,18 @@
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
+      <c r="A8" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -785,18 +825,45 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1"/>
-    <row r="11" spans="1:4" ht="18" customHeight="1"/>
-    <row r="12" spans="1:4" ht="18" customHeight="1"/>
-    <row r="13" spans="1:4" ht="18" customHeight="1"/>
-    <row r="14" spans="1:4" ht="18" customHeight="1"/>
+    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="15" spans="1:4" ht="18" customHeight="1"/>
     <row r="16" spans="1:4" ht="18" customHeight="1"/>
     <row r="17" ht="18" customHeight="1"/>
@@ -805,6 +872,8 @@
     <row r="20" ht="18" customHeight="1"/>
     <row r="21" ht="18" customHeight="1"/>
     <row r="22" ht="18" customHeight="1"/>
+    <row r="23" ht="18" customHeight="1"/>
+    <row r="24" ht="18" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -817,7 +886,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -851,7 +920,9 @@
       </c>
     </row>
     <row r="6" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="8"/>

--- a/Document/项目的需求分析/迭代计划.xlsx
+++ b/Document/项目的需求分析/迭代计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -336,6 +336,39 @@
   </si>
   <si>
     <t>外网可以连接看效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码迁移到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gitlab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>私有仓库</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +768,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -864,7 +897,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1"/>
+    <row r="15" spans="1:4" ht="18" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="16" spans="1:4" ht="18" customHeight="1"/>
     <row r="17" ht="18" customHeight="1"/>
     <row r="18" ht="18" customHeight="1"/>
